--- a/xlsx_files/Race44.xlsx
+++ b/xlsx_files/Race44.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA4C69-066C-4888-99F9-DBD93C740573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A668D-6A51-400B-8FF1-6D7AA47F1ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3612" yWindow="348" windowWidth="26904" windowHeight="15732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Track Name</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>01:53.2450</t>
+  </si>
+  <si>
+    <t>0.7</t>
   </si>
 </sst>
 </file>
@@ -581,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -654,8 +657,8 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
